--- a/sales-stats/PodSnatcherSales.xlsx
+++ b/sales-stats/PodSnatcherSales.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="28620" windowHeight="14190" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="28620" windowHeight="14190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sales Statistics" sheetId="4" r:id="rId1"/>
@@ -143,7 +143,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -183,7 +183,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -246,10 +246,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$68</c:f>
+              <c:f>Sheet1!$E$2:$E$74</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>40296</c:v>
                 </c:pt>
@@ -444,16 +444,40 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>40360</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>40361</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>40362</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>40363</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>40364</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>40365</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>40366</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>40367</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>40368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$68</c:f>
+              <c:f>Sheet1!$A$2:$A$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -648,6 +672,30 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -669,10 +717,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$68</c:f>
+              <c:f>Sheet1!$E$2:$E$74</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>40296</c:v>
                 </c:pt>
@@ -867,16 +915,40 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>40360</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>40361</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>40362</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>40363</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>40364</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>40365</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>40366</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>40367</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>40368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$68</c:f>
+              <c:f>Sheet1!$C$2:$C$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -1071,6 +1143,30 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>1405</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1459</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1494</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1548</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1567</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1591</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1614</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1095,10 +1191,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$68</c:f>
+              <c:f>Sheet1!$E$2:$E$74</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>40296</c:v>
                 </c:pt>
@@ -1293,16 +1389,40 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>40360</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>40361</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>40362</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>40363</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>40364</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>40365</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>40366</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>40367</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>40368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$68</c:f>
+              <c:f>Sheet1!$B$2:$B$74</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="6">
                   <c:v>25.857142857142858</c:v>
                 </c:pt>
@@ -1478,7 +1598,31 @@
                   <c:v>52.142857142857146</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>58.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>63.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66.285714285714292</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68.142857142857139</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>71.285714285714292</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>51.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>34.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>29.857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1503,10 +1647,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$68</c:f>
+              <c:f>Sheet1!$E$2:$E$74</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>40296</c:v>
                 </c:pt>
@@ -1701,16 +1845,40 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>40360</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>40361</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>40362</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>40363</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>40364</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>40365</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>40366</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>40367</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>40368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$68</c:f>
+              <c:f>Sheet1!$D$2:$D$74</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="2">
                   <c:v>62</c:v>
                 </c:pt>
@@ -1899,17 +2067,41 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>1141.0139860139461</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1174.8982360922964</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1208.9723441614769</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1242.7033248082735</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1276.224016563152</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1309.0418511066819</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1341.4741784037324</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1373.4882039573276</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1419.2262125138659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="224880512"/>
-        <c:axId val="224882048"/>
+        <c:axId val="90404736"/>
+        <c:axId val="90406272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="224880512"/>
+        <c:axId val="90404736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1917,13 +2109,13 @@
         <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="224882048"/>
+        <c:crossAx val="90406272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="224882048"/>
+        <c:axId val="90406272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1950,7 +2142,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="224880512"/>
+        <c:crossAx val="90404736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1968,7 +2160,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="130" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2003,8 +2195,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E66" totalsRowShown="0">
-  <autoFilter ref="A1:E66"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E74" totalsRowShown="0">
+  <autoFilter ref="A1:E74"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Daily Sales"/>
     <tableColumn id="3" name="7-Day Average Daily Sale" dataDxfId="2">
@@ -2307,10 +2499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2357,11 +2549,11 @@
       </c>
       <c r="I2" s="2">
         <f>MAX(Table1[Daily Sales])</f>
-        <v>158</v>
+        <v>286</v>
       </c>
       <c r="J2" s="3">
         <f>VLOOKUP(I2,Table1[],5,FALSE)</f>
-        <v>40358</v>
+        <v>40368</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2422,8 +2614,8 @@
         <v>7</v>
       </c>
       <c r="I5" s="2">
-        <f>AVERAGE(A2:A66)</f>
-        <v>21.615384615384617</v>
+        <f>AVERAGE(A2:A74)</f>
+        <v>26.027397260273972</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2502,11 +2694,11 @@
       </c>
       <c r="I9" s="4">
         <f>(MAX(C:C)*0.99)*0.7</f>
-        <v>973.66499999999996</v>
+        <v>1316.6999999999998</v>
       </c>
       <c r="J9" s="4">
         <f>(MAX(D:D)*0.99)*0.7</f>
-        <v>790.7226923076646</v>
+        <v>983.5237652721089</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2562,11 +2754,11 @@
       </c>
       <c r="I11" s="4">
         <f>I9-I10</f>
-        <v>873.66499999999996</v>
+        <v>1216.6999999999998</v>
       </c>
       <c r="J11" s="4">
         <f>J9-J10</f>
-        <v>690.7226923076646</v>
+        <v>883.5237652721089</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2622,11 +2814,11 @@
       </c>
       <c r="I13" s="4">
         <f>I11/I12</f>
-        <v>17.473299999999998</v>
+        <v>24.333999999999996</v>
       </c>
       <c r="J13" s="4">
         <f>J11/J12</f>
-        <v>13.814453846153292</v>
+        <v>17.670475305442178</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3154,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="2">
-        <f t="shared" ref="B40:B65" si="2">AVERAGE(A34:A40)</f>
+        <f t="shared" ref="B40:B74" si="2">AVERAGE(A34:A40)</f>
         <v>4.7142857142857144</v>
       </c>
       <c r="C40">
@@ -3673,9 +3865,9 @@
       <c r="A66" s="6">
         <v>54</v>
       </c>
-      <c r="B66" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="B66" s="2">
+        <f t="shared" si="2"/>
+        <v>58.142857142857146</v>
       </c>
       <c r="C66" s="6">
         <f>A66+C65</f>
@@ -3689,6 +3881,166 @@
         <v>40360</v>
       </c>
       <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="6">
+        <v>54</v>
+      </c>
+      <c r="B67" s="2">
+        <f t="shared" si="2"/>
+        <v>63.285714285714285</v>
+      </c>
+      <c r="C67" s="6">
+        <f>A67+C66</f>
+        <v>1459</v>
+      </c>
+      <c r="D67" s="7">
+        <f>FORECAST(E67,$C$1:C67,$E$1:E67)</f>
+        <v>1174.8982360922964</v>
+      </c>
+      <c r="E67" s="1">
+        <v>40361</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="6">
+        <v>35</v>
+      </c>
+      <c r="B68" s="2">
+        <f t="shared" si="2"/>
+        <v>66.285714285714292</v>
+      </c>
+      <c r="C68" s="6">
+        <f>A68+C67</f>
+        <v>1494</v>
+      </c>
+      <c r="D68" s="7">
+        <f>FORECAST(E68,$C$1:C68,$E$1:E68)</f>
+        <v>1208.9723441614769</v>
+      </c>
+      <c r="E68" s="1">
+        <v>40362</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="6">
+        <v>26</v>
+      </c>
+      <c r="B69" s="2">
+        <f t="shared" si="2"/>
+        <v>68.142857142857139</v>
+      </c>
+      <c r="C69" s="6">
+        <f>A69+C68</f>
+        <v>1520</v>
+      </c>
+      <c r="D69" s="7">
+        <f>FORECAST(E69,$C$1:C69,$E$1:E69)</f>
+        <v>1242.7033248082735</v>
+      </c>
+      <c r="E69" s="1">
+        <v>40363</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="6">
+        <v>28</v>
+      </c>
+      <c r="B70" s="2">
+        <f t="shared" si="2"/>
+        <v>71.285714285714292</v>
+      </c>
+      <c r="C70" s="6">
+        <f>A70+C69</f>
+        <v>1548</v>
+      </c>
+      <c r="D70" s="7">
+        <f>FORECAST(E70,$C$1:C70,$E$1:E70)</f>
+        <v>1276.224016563152</v>
+      </c>
+      <c r="E70" s="1">
+        <v>40364</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="6">
+        <v>19</v>
+      </c>
+      <c r="B71" s="2">
+        <f t="shared" si="2"/>
+        <v>51.428571428571431</v>
+      </c>
+      <c r="C71" s="6">
+        <f>A71+C70</f>
+        <v>1567</v>
+      </c>
+      <c r="D71" s="7">
+        <f>FORECAST(E71,$C$1:C71,$E$1:E71)</f>
+        <v>1309.0418511066819</v>
+      </c>
+      <c r="E71" s="1">
+        <v>40365</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="6">
+        <v>24</v>
+      </c>
+      <c r="B72" s="2">
+        <f t="shared" si="2"/>
+        <v>34.285714285714285</v>
+      </c>
+      <c r="C72" s="6">
+        <f>A72+C71</f>
+        <v>1591</v>
+      </c>
+      <c r="D72" s="7">
+        <f>FORECAST(E72,$C$1:C72,$E$1:E72)</f>
+        <v>1341.4741784037324</v>
+      </c>
+      <c r="E72" s="1">
+        <v>40366</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="6">
+        <v>23</v>
+      </c>
+      <c r="B73" s="2">
+        <f t="shared" si="2"/>
+        <v>29.857142857142858</v>
+      </c>
+      <c r="C73" s="6">
+        <f>A73+C72</f>
+        <v>1614</v>
+      </c>
+      <c r="D73" s="7">
+        <f>FORECAST(E73,$C$1:C73,$E$1:E73)</f>
+        <v>1373.4882039573276</v>
+      </c>
+      <c r="E73" s="1">
+        <v>40367</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="6">
+        <v>286</v>
+      </c>
+      <c r="B74" s="2">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="C74" s="6">
+        <f>A74+C73</f>
+        <v>1900</v>
+      </c>
+      <c r="D74" s="7">
+        <f>FORECAST(E74,$C$1:C74,$E$1:E74)</f>
+        <v>1419.2262125138659</v>
+      </c>
+      <c r="E74" s="1">
+        <v>40368</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3705,7 +4057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
@@ -3776,7 +4128,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="4">
-        <f>IF(F2="EUR", E2*$L$1, E2)</f>
+        <f t="shared" ref="G2:G32" si="0">IF(F2="EUR", E2*$L$1, E2)</f>
         <v>0.63734833333333329</v>
       </c>
       <c r="H2" s="8">
@@ -3804,14 +4156,14 @@
         <v>0.51</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" ref="E3:E32" si="0">D3/C3</f>
+        <f t="shared" ref="E3:E32" si="1">D3/C3</f>
         <v>0.51</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="4">
-        <f>IF(F3="EUR", E3*$L$1, E3)</f>
+        <f t="shared" si="0"/>
         <v>0.63943800000000006</v>
       </c>
       <c r="H3" s="8">
@@ -3839,14 +4191,14 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57499999999999996</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="4">
-        <f>IF(F4="EUR", E4*$L$1, E4)</f>
+        <f t="shared" si="0"/>
         <v>0.72093499999999999</v>
       </c>
       <c r="H4" s="8">
@@ -3874,14 +4226,14 @@
         <v>0.68</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.68</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="4">
-        <f>IF(F5="EUR", E5*$L$1, E5)</f>
+        <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
       <c r="H5" s="8">
@@ -3902,14 +4254,14 @@
         <v>22.87</v>
       </c>
       <c r="E6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.69303030303030311</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="4">
-        <f>IF(F6="EUR", E6*$L$1, E6)</f>
+        <f t="shared" si="0"/>
         <v>0.69303030303030311</v>
       </c>
       <c r="H6" s="8">
@@ -3930,14 +4282,14 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.56999999999999995</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="4">
-        <f>IF(F7="EUR", E7*$L$1, E7)</f>
+        <f t="shared" si="0"/>
         <v>0.71466599999999991</v>
       </c>
       <c r="H7" s="8">
@@ -3958,14 +4310,14 @@
         <v>9.01</v>
       </c>
       <c r="E8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.69307692307692303</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="4">
-        <f>IF(F8="EUR", E8*$L$1, E8)</f>
+        <f t="shared" si="0"/>
         <v>0.69307692307692303</v>
       </c>
       <c r="H8" s="8">
@@ -3989,14 +4341,14 @@
         <v>3.65</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.52142857142857146</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="4">
-        <f>IF(F9="EUR", E9*$L$1, E9)</f>
+        <f t="shared" si="0"/>
         <v>0.65376714285714288</v>
       </c>
       <c r="H9" s="8">
@@ -4017,14 +4369,14 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.56999999999999995</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="4">
-        <f>IF(F10="EUR", E10*$L$1, E10)</f>
+        <f t="shared" si="0"/>
         <v>0.71466599999999991</v>
       </c>
       <c r="H10" s="8">
@@ -4045,14 +4397,14 @@
         <v>4.59</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57374999999999998</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="4">
-        <f>IF(F11="EUR", E11*$L$1, E11)</f>
+        <f t="shared" si="0"/>
         <v>0.71936774999999997</v>
       </c>
       <c r="H11" s="8">
@@ -4073,14 +4425,14 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.56999999999999995</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
       </c>
       <c r="G12" s="4">
-        <f>IF(F12="EUR", E12*$L$1, E12)</f>
+        <f t="shared" si="0"/>
         <v>0.71466599999999991</v>
       </c>
       <c r="H12" s="8">
@@ -4101,14 +4453,14 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.56999999999999995</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="4">
-        <f>IF(F13="EUR", E13*$L$1, E13)</f>
+        <f t="shared" si="0"/>
         <v>0.71466599999999991</v>
       </c>
       <c r="H13" s="8">
@@ -4129,14 +4481,14 @@
         <v>2.76</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.69</v>
       </c>
       <c r="F14" t="s">
         <v>24</v>
       </c>
       <c r="G14" s="4">
-        <f>IF(F14="EUR", E14*$L$1, E14)</f>
+        <f t="shared" si="0"/>
         <v>0.69</v>
       </c>
       <c r="H14" s="8">
@@ -4157,14 +4509,14 @@
         <v>42.27</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.69295081967213124</v>
       </c>
       <c r="F15" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="4">
-        <f>IF(F15="EUR", E15*$L$1, E15)</f>
+        <f t="shared" si="0"/>
         <v>0.69295081967213124</v>
       </c>
       <c r="H15" s="8">
@@ -4185,14 +4537,14 @@
         <v>2.61</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.52200000000000002</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="4">
-        <f>IF(F16="EUR", E16*$L$1, E16)</f>
+        <f t="shared" si="0"/>
         <v>0.65448360000000005</v>
       </c>
       <c r="H16" s="8">
@@ -4213,14 +4565,14 @@
         <v>7.46</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57384615384615389</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="4">
-        <f>IF(F17="EUR", E17*$L$1, E17)</f>
+        <f t="shared" si="0"/>
         <v>0.71948830769230776</v>
       </c>
       <c r="H17" s="8">
@@ -4241,14 +4593,14 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57499999999999996</v>
       </c>
       <c r="F18" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="4">
-        <f>IF(F18="EUR", E18*$L$1, E18)</f>
+        <f t="shared" si="0"/>
         <v>0.72093499999999999</v>
       </c>
       <c r="H18" s="8">
@@ -4269,14 +4621,14 @@
         <v>2.08</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.69333333333333336</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>
       </c>
       <c r="G19" s="4">
-        <f>IF(F19="EUR", E19*$L$1, E19)</f>
+        <f t="shared" si="0"/>
         <v>0.69333333333333336</v>
       </c>
       <c r="H19" s="8">
@@ -4297,14 +4649,14 @@
         <v>136.52000000000001</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.69299492385786809</v>
       </c>
       <c r="F20" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="4">
-        <f>IF(F20="EUR", E20*$L$1, E20)</f>
+        <f t="shared" si="0"/>
         <v>0.69299492385786809</v>
       </c>
       <c r="H20" s="8">
@@ -4325,14 +4677,14 @@
         <v>1.06</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.53</v>
       </c>
       <c r="F21" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="4">
-        <f>IF(F21="EUR", E21*$L$1, E21)</f>
+        <f t="shared" si="0"/>
         <v>0.66451400000000005</v>
       </c>
       <c r="H21" s="8">
@@ -4353,14 +4705,14 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57499999999999996</v>
       </c>
       <c r="F22" t="s">
         <v>20</v>
       </c>
       <c r="G22" s="4">
-        <f>IF(F22="EUR", E22*$L$1, E22)</f>
+        <f t="shared" si="0"/>
         <v>0.72093499999999999</v>
       </c>
       <c r="H22" s="8">
@@ -4381,14 +4733,14 @@
         <v>39.5</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.69298245614035092</v>
       </c>
       <c r="F23" t="s">
         <v>24</v>
       </c>
       <c r="G23" s="4">
-        <f>IF(F23="EUR", E23*$L$1, E23)</f>
+        <f t="shared" si="0"/>
         <v>0.69298245614035092</v>
       </c>
       <c r="H23" s="8">
@@ -4409,14 +4761,14 @@
         <v>58.91</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.69305882352941173</v>
       </c>
       <c r="F24" t="s">
         <v>24</v>
       </c>
       <c r="G24" s="4">
-        <f>IF(F24="EUR", E24*$L$1, E24)</f>
+        <f t="shared" si="0"/>
         <v>0.69305882352941173</v>
       </c>
       <c r="H24" s="8">
@@ -4437,14 +4789,14 @@
         <v>1.31</v>
       </c>
       <c r="E25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.65500000000000003</v>
       </c>
       <c r="F25" t="s">
         <v>24</v>
       </c>
       <c r="G25" s="4">
-        <f>IF(F25="EUR", E25*$L$1, E25)</f>
+        <f t="shared" si="0"/>
         <v>0.65500000000000003</v>
       </c>
       <c r="H25" s="8">
@@ -4465,14 +4817,14 @@
         <v>2.08</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.69333333333333336</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="4">
-        <f>IF(F26="EUR", E26*$L$1, E26)</f>
+        <f t="shared" si="0"/>
         <v>0.86930133333333337</v>
       </c>
       <c r="H26" s="8">
@@ -4493,14 +4845,14 @@
         <v>0.69</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.69</v>
       </c>
       <c r="F27" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="4">
-        <f>IF(F27="EUR", E27*$L$1, E27)</f>
+        <f t="shared" si="0"/>
         <v>0.86512199999999995</v>
       </c>
       <c r="H27" s="8">
@@ -4521,14 +4873,14 @@
         <v>3.22</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.80500000000000005</v>
       </c>
       <c r="F28" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="4">
-        <f>IF(F28="EUR", E28*$L$1, E28)</f>
+        <f t="shared" si="0"/>
         <v>1.009309</v>
       </c>
       <c r="H28" s="8">
@@ -4549,14 +4901,14 @@
         <v>44.35</v>
       </c>
       <c r="E29" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.69296875000000002</v>
       </c>
       <c r="F29" t="s">
         <v>24</v>
       </c>
       <c r="G29" s="4">
-        <f>IF(F29="EUR", E29*$L$1, E29)</f>
+        <f t="shared" si="0"/>
         <v>0.69296875000000002</v>
       </c>
       <c r="H29" s="8">
@@ -4577,14 +4929,14 @@
         <v>0.65</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.65</v>
       </c>
       <c r="F30" t="s">
         <v>24</v>
       </c>
       <c r="G30" s="4">
-        <f>IF(F30="EUR", E30*$L$1, E30)</f>
+        <f t="shared" si="0"/>
         <v>0.65</v>
       </c>
       <c r="H30" s="8">
@@ -4605,14 +4957,14 @@
         <v>0.69</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.69</v>
       </c>
       <c r="F31" t="s">
         <v>20</v>
       </c>
       <c r="G31" s="4">
-        <f>IF(F31="EUR", E31*$L$1, E31)</f>
+        <f t="shared" si="0"/>
         <v>0.86512199999999995</v>
       </c>
       <c r="H31" s="8">
@@ -4633,14 +4985,14 @@
         <v>2.42</v>
       </c>
       <c r="E32" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.80666666666666664</v>
       </c>
       <c r="F32" t="s">
         <v>20</v>
       </c>
       <c r="G32" s="4">
-        <f>IF(F32="EUR", E32*$L$1, E32)</f>
+        <f t="shared" si="0"/>
         <v>1.0113986666666666</v>
       </c>
       <c r="H32" s="8">

--- a/sales-stats/PodSnatcherSales.xlsx
+++ b/sales-stats/PodSnatcherSales.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="28620" windowHeight="14190" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="28620" windowHeight="14190"/>
   </bookViews>
   <sheets>
     <sheet name="Sales Statistics" sheetId="4" r:id="rId1"/>
@@ -246,10 +246,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$74</c:f>
+              <c:f>Sheet1!$E$2:$E$85</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>40296</c:v>
                 </c:pt>
@@ -468,16 +468,49 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>40368</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>40369</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>40370</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>40371</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>40372</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>40373</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>40374</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>40375</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40376</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>40377</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>40378</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>40379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$74</c:f>
+              <c:f>Sheet1!$A$2:$A$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -696,6 +729,39 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -717,10 +783,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$74</c:f>
+              <c:f>Sheet1!$E$2:$E$85</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>40296</c:v>
                 </c:pt>
@@ -939,16 +1005,49 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>40368</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>40369</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>40370</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>40371</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>40372</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>40373</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>40374</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>40375</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40376</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>40377</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>40378</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>40379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$74</c:f>
+              <c:f>Sheet1!$C$2:$C$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -1167,6 +1266,39 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2082</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2119</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2384</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2504</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2563</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2621</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2663</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2690</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1191,10 +1323,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$74</c:f>
+              <c:f>Sheet1!$E$2:$E$85</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>40296</c:v>
                 </c:pt>
@@ -1413,16 +1545,49 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>40368</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>40369</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>40370</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>40371</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>40372</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>40373</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>40374</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>40375</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40376</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>40377</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>40378</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>40379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$74</c:f>
+              <c:f>Sheet1!$B$2:$B$85</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="6">
                   <c:v>25.857142857142858</c:v>
                 </c:pt>
@@ -1623,6 +1788,39 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>71.285714285714292</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74.285714285714292</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76.285714285714292</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>78.857142857142861</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>113.28571428571429</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>127.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>94.714285714285708</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>89.714285714285708</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>86.857142857142861</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>85.142857142857139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1647,10 +1845,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$74</c:f>
+              <c:f>Sheet1!$E$2:$E$85</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>40296</c:v>
                 </c:pt>
@@ -1869,16 +2067,49 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>40368</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>40369</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>40370</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>40371</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>40372</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>40373</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>40374</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>40375</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40376</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>40377</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>40378</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>40379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$74</c:f>
+              <c:f>Sheet1!$D$2:$D$85</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="2">
                   <c:v>62</c:v>
                 </c:pt>
@@ -2091,17 +2322,50 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>1419.2262125138659</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1467.6410810811212</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1516.1663157894509</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1564.5338345863856</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1612.4945054944837</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1671.5384615384974</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1733.8363924049772</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1796.2101851853076</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1858.6028304727515</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1920.2427270056214</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1980.4561101548607</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2039.2210084034596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="90404736"/>
-        <c:axId val="90406272"/>
+        <c:axId val="90408064"/>
+        <c:axId val="90409600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="90404736"/>
+        <c:axId val="90408064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2109,13 +2373,13 @@
         <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90406272"/>
+        <c:crossAx val="90409600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="90406272"/>
+        <c:axId val="90409600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2142,7 +2406,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90404736"/>
+        <c:crossAx val="90408064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2160,7 +2424,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="130" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2195,8 +2459,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E74" totalsRowShown="0">
-  <autoFilter ref="A1:E74"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E85" totalsRowShown="0">
+  <autoFilter ref="A1:E85"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Daily Sales"/>
     <tableColumn id="3" name="7-Day Average Daily Sale" dataDxfId="2">
@@ -2499,10 +2763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2614,8 +2878,8 @@
         <v>7</v>
       </c>
       <c r="I5" s="2">
-        <f>AVERAGE(A2:A74)</f>
-        <v>26.027397260273972</v>
+        <f>AVERAGE(A2:A85)</f>
+        <v>32.321428571428569</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2694,11 +2958,11 @@
       </c>
       <c r="I9" s="4">
         <f>(MAX(C:C)*0.99)*0.7</f>
-        <v>1316.6999999999998</v>
+        <v>1881.4949999999999</v>
       </c>
       <c r="J9" s="4">
         <f>(MAX(D:D)*0.99)*0.7</f>
-        <v>983.5237652721089</v>
+        <v>1413.1801588235974</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2754,11 +3018,11 @@
       </c>
       <c r="I11" s="4">
         <f>I9-I10</f>
-        <v>1216.6999999999998</v>
+        <v>1781.4949999999999</v>
       </c>
       <c r="J11" s="4">
         <f>J9-J10</f>
-        <v>883.5237652721089</v>
+        <v>1313.1801588235974</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2814,11 +3078,11 @@
       </c>
       <c r="I13" s="4">
         <f>I11/I12</f>
-        <v>24.333999999999996</v>
+        <v>35.629899999999999</v>
       </c>
       <c r="J13" s="4">
         <f>J11/J12</f>
-        <v>17.670475305442178</v>
+        <v>26.263603176471946</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3346,7 +3610,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="2">
-        <f t="shared" ref="B40:B74" si="2">AVERAGE(A34:A40)</f>
+        <f t="shared" ref="B40:B85" si="2">AVERAGE(A34:A40)</f>
         <v>4.7142857142857144</v>
       </c>
       <c r="C40">
@@ -3870,7 +4134,7 @@
         <v>58.142857142857146</v>
       </c>
       <c r="C66" s="6">
-        <f>A66+C65</f>
+        <f t="shared" ref="C66:C74" si="3">A66+C65</f>
         <v>1405</v>
       </c>
       <c r="D66" s="7">
@@ -3891,7 +4155,7 @@
         <v>63.285714285714285</v>
       </c>
       <c r="C67" s="6">
-        <f>A67+C66</f>
+        <f t="shared" si="3"/>
         <v>1459</v>
       </c>
       <c r="D67" s="7">
@@ -3911,7 +4175,7 @@
         <v>66.285714285714292</v>
       </c>
       <c r="C68" s="6">
-        <f>A68+C67</f>
+        <f t="shared" si="3"/>
         <v>1494</v>
       </c>
       <c r="D68" s="7">
@@ -3931,7 +4195,7 @@
         <v>68.142857142857139</v>
       </c>
       <c r="C69" s="6">
-        <f>A69+C68</f>
+        <f t="shared" si="3"/>
         <v>1520</v>
       </c>
       <c r="D69" s="7">
@@ -3951,7 +4215,7 @@
         <v>71.285714285714292</v>
       </c>
       <c r="C70" s="6">
-        <f>A70+C69</f>
+        <f t="shared" si="3"/>
         <v>1548</v>
       </c>
       <c r="D70" s="7">
@@ -3971,7 +4235,7 @@
         <v>51.428571428571431</v>
       </c>
       <c r="C71" s="6">
-        <f>A71+C70</f>
+        <f t="shared" si="3"/>
         <v>1567</v>
       </c>
       <c r="D71" s="7">
@@ -3991,7 +4255,7 @@
         <v>34.285714285714285</v>
       </c>
       <c r="C72" s="6">
-        <f>A72+C71</f>
+        <f t="shared" si="3"/>
         <v>1591</v>
       </c>
       <c r="D72" s="7">
@@ -4011,7 +4275,7 @@
         <v>29.857142857142858</v>
       </c>
       <c r="C73" s="6">
-        <f>A73+C72</f>
+        <f t="shared" si="3"/>
         <v>1614</v>
       </c>
       <c r="D73" s="7">
@@ -4031,7 +4295,7 @@
         <v>63</v>
       </c>
       <c r="C74" s="6">
-        <f>A74+C73</f>
+        <f t="shared" si="3"/>
         <v>1900</v>
       </c>
       <c r="D74" s="7">
@@ -4040,6 +4304,226 @@
       </c>
       <c r="E74" s="1">
         <v>40368</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="6">
+        <v>93</v>
+      </c>
+      <c r="B75" s="2">
+        <f t="shared" si="2"/>
+        <v>71.285714285714292</v>
+      </c>
+      <c r="C75" s="6">
+        <f t="shared" ref="C75:C83" si="4">A75+C74</f>
+        <v>1993</v>
+      </c>
+      <c r="D75" s="7">
+        <f>FORECAST(E75,$C$1:C75,$E$1:E75)</f>
+        <v>1467.6410810811212</v>
+      </c>
+      <c r="E75" s="1">
+        <v>40369</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="6">
+        <v>47</v>
+      </c>
+      <c r="B76" s="2">
+        <f t="shared" si="2"/>
+        <v>74.285714285714292</v>
+      </c>
+      <c r="C76" s="6">
+        <f t="shared" si="4"/>
+        <v>2040</v>
+      </c>
+      <c r="D76" s="7">
+        <f>FORECAST(E76,$C$1:C76,$E$1:E76)</f>
+        <v>1516.1663157894509</v>
+      </c>
+      <c r="E76" s="1">
+        <v>40370</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="6">
+        <v>42</v>
+      </c>
+      <c r="B77" s="2">
+        <f t="shared" si="2"/>
+        <v>76.285714285714292</v>
+      </c>
+      <c r="C77" s="6">
+        <f t="shared" si="4"/>
+        <v>2082</v>
+      </c>
+      <c r="D77" s="7">
+        <f>FORECAST(E77,$C$1:C77,$E$1:E77)</f>
+        <v>1564.5338345863856</v>
+      </c>
+      <c r="E77" s="1">
+        <v>40371</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="6">
+        <v>37</v>
+      </c>
+      <c r="B78" s="2">
+        <f t="shared" si="2"/>
+        <v>78.857142857142861</v>
+      </c>
+      <c r="C78" s="6">
+        <f t="shared" si="4"/>
+        <v>2119</v>
+      </c>
+      <c r="D78" s="7">
+        <f>FORECAST(E78,$C$1:C78,$E$1:E78)</f>
+        <v>1612.4945054944837</v>
+      </c>
+      <c r="E78" s="1">
+        <v>40372</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="6">
+        <v>265</v>
+      </c>
+      <c r="B79" s="2">
+        <f t="shared" si="2"/>
+        <v>113.28571428571429</v>
+      </c>
+      <c r="C79" s="6">
+        <f t="shared" si="4"/>
+        <v>2384</v>
+      </c>
+      <c r="D79" s="7">
+        <f>FORECAST(E79,$C$1:C79,$E$1:E79)</f>
+        <v>1671.5384615384974</v>
+      </c>
+      <c r="E79" s="1">
+        <v>40373</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="6">
+        <v>120</v>
+      </c>
+      <c r="B80" s="2">
+        <f t="shared" si="2"/>
+        <v>127.14285714285714</v>
+      </c>
+      <c r="C80" s="6">
+        <f t="shared" si="4"/>
+        <v>2504</v>
+      </c>
+      <c r="D80" s="7">
+        <f>FORECAST(E80,$C$1:C80,$E$1:E80)</f>
+        <v>1733.8363924049772</v>
+      </c>
+      <c r="E80" s="1">
+        <v>40374</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="6">
+        <v>59</v>
+      </c>
+      <c r="B81" s="2">
+        <f t="shared" si="2"/>
+        <v>94.714285714285708</v>
+      </c>
+      <c r="C81" s="6">
+        <f t="shared" si="4"/>
+        <v>2563</v>
+      </c>
+      <c r="D81" s="7">
+        <f>FORECAST(E81,$C$1:C81,$E$1:E81)</f>
+        <v>1796.2101851853076</v>
+      </c>
+      <c r="E81" s="1">
+        <v>40375</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="6">
+        <v>58</v>
+      </c>
+      <c r="B82" s="2">
+        <f t="shared" si="2"/>
+        <v>89.714285714285708</v>
+      </c>
+      <c r="C82" s="6">
+        <f t="shared" si="4"/>
+        <v>2621</v>
+      </c>
+      <c r="D82" s="7">
+        <f>FORECAST(E82,$C$1:C82,$E$1:E82)</f>
+        <v>1858.6028304727515</v>
+      </c>
+      <c r="E82" s="1">
+        <v>40376</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="6">
+        <v>42</v>
+      </c>
+      <c r="B83" s="2">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="C83" s="6">
+        <f t="shared" si="4"/>
+        <v>2663</v>
+      </c>
+      <c r="D83" s="7">
+        <f>FORECAST(E83,$C$1:C83,$E$1:E83)</f>
+        <v>1920.2427270056214</v>
+      </c>
+      <c r="E83" s="1">
+        <v>40377</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="6">
+        <v>27</v>
+      </c>
+      <c r="B84" s="2">
+        <f t="shared" si="2"/>
+        <v>86.857142857142861</v>
+      </c>
+      <c r="C84" s="6">
+        <f>A84+C83</f>
+        <v>2690</v>
+      </c>
+      <c r="D84" s="7">
+        <f>FORECAST(E84,$C$1:C84,$E$1:E84)</f>
+        <v>1980.4561101548607</v>
+      </c>
+      <c r="E84" s="1">
+        <v>40378</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="6">
+        <v>25</v>
+      </c>
+      <c r="B85" s="2">
+        <f t="shared" si="2"/>
+        <v>85.142857142857139</v>
+      </c>
+      <c r="C85" s="6">
+        <f>A85+C84</f>
+        <v>2715</v>
+      </c>
+      <c r="D85" s="7">
+        <f>FORECAST(E85,$C$1:C85,$E$1:E85)</f>
+        <v>2039.2210084034596</v>
+      </c>
+      <c r="E85" s="1">
+        <v>40379</v>
       </c>
     </row>
   </sheetData>
@@ -4058,7 +4542,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
